--- a/reuniões/dailys/Daily_24_09.xlsx
+++ b/reuniões/dailys/Daily_24_09.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4AE69A9-1E00-4146-B634-4C521378AF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{A4AE69A9-1E00-4146-B634-4C521378AF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D71825-F74B-42AC-A603-DDAFC1A7AB9D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda de reunião" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>AGENDA DE REUNIÕES ORCHIS SYSTEM</t>
   </si>
@@ -69,19 +69,7 @@
     <t>Presentes</t>
   </si>
   <si>
-    <t>Alinhamento das atividades da semana</t>
-  </si>
-  <si>
-    <t>Fábio Kuroki</t>
-  </si>
-  <si>
-    <t>Discussão projeto paralelo</t>
-  </si>
-  <si>
     <t>Macari Marcelino</t>
-  </si>
-  <si>
-    <t>Atualização da situação dos requisitos da semana</t>
   </si>
   <si>
     <t>Thais Vitória</t>
@@ -111,37 +99,7 @@
     <t>Situação</t>
   </si>
   <si>
-    <t>Modificações na documentação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toda a equipe </t>
-  </si>
-  <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
-    <t>Criação da Tela Login</t>
-  </si>
-  <si>
-    <t>Vinicius/Neto</t>
-  </si>
-  <si>
-    <t>Criação da Tela Home</t>
-  </si>
-  <si>
-    <t>Fábio/Macari</t>
-  </si>
-  <si>
-    <t>Criação da Tela Central</t>
-  </si>
-  <si>
-    <t>Criação da Tela Soluções</t>
-  </si>
-  <si>
-    <t>Criação da Tela Sobre</t>
-  </si>
-  <si>
-    <t>Victor/Thais</t>
+    <t>Fábio Kuriki</t>
   </si>
 </sst>
 </file>
@@ -149,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="28">
@@ -644,10 +602,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -868,18 +826,48 @@
   <dxfs count="18">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
         <name val="Poppins"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFEFD5EC"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Poppins"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF922A74"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -910,25 +898,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Poppins"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="h:mm;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEFD5EC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -954,19 +923,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
         <name val="Poppins"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="h:mm;@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFEFD5EC"/>
+          <bgColor rgb="FF922A74"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1005,6 +979,24 @@
         <name val="Poppins"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFD5EC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Poppins"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="166" formatCode="h:mm;@"/>
       <fill>
         <patternFill patternType="solid">
@@ -1016,24 +1008,38 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
         <name val="Poppins"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="h:mm;@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF922A74"/>
+          <bgColor rgb="FFEFD5EC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Poppins"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="h:mm;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFD5EC"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1118,30 +1124,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Poppins"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1154,30 +1136,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFEFD5EC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Poppins"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF922A74"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1390,8 +1348,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDaReunião" displayName="DadosDaReunião" ref="B8:C18" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15">
   <autoFilter ref="B8:C17" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assuntos Discutidos" dataDxfId="13" totalsRowDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{19E48FEE-BF0F-4F91-A6DF-64EF1072BC46}" name="Presentes" dataDxfId="11" totalsRowDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assuntos Discutidos" dataDxfId="14" totalsRowDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{19E48FEE-BF0F-4F91-A6DF-64EF1072BC46}" name="Presentes" dataDxfId="13" totalsRowDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1403,17 +1361,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE37D6C8-AC04-46A6-AAA6-24B204D1D210}" name="DadosDaReunião2" displayName="DadosDaReunião2" ref="B21:E31" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE37D6C8-AC04-46A6-AAA6-24B204D1D210}" name="DadosDaReunião2" displayName="DadosDaReunião2" ref="B21:E31" totalsRowCount="1" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
   <autoFilter ref="B21:E30" xr:uid="{CE37D6C8-AC04-46A6-AAA6-24B204D1D210}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BCB40325-DDE7-4562-A460-C0F89FD9179B}" name="Atividades" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="Horário de Início/Término">
+    <tableColumn id="1" xr3:uid="{BCB40325-DDE7-4562-A460-C0F89FD9179B}" name="Atividades" dataDxfId="9" totalsRowDxfId="5" dataCellStyle="Horário de Início/Término">
       <calculatedColumnFormula>IF(ISBLANK(C21),"",C21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{93D62D18-C90E-48BF-B30A-D911F7A6FCD8}" name="Entrega" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Horário de Início/Término">
+    <tableColumn id="2" xr3:uid="{93D62D18-C90E-48BF-B30A-D911F7A6FCD8}" name="Entrega" dataDxfId="8" totalsRowDxfId="4" dataCellStyle="Horário de Início/Término">
       <calculatedColumnFormula>IFERROR(IF(ISBLANK(D22),"",B22+D22), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C88724A6-1AAA-442A-AC5D-FA9CC640F437}" name="Responsável" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Hora"/>
-    <tableColumn id="4" xr3:uid="{9E5AC715-A849-49E0-86B6-4B41F726ED66}" name="Situação" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{C88724A6-1AAA-442A-AC5D-FA9CC640F437}" name="Responsável" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Hora"/>
+    <tableColumn id="4" xr3:uid="{9E5AC715-A849-49E0-86B6-4B41F726ED66}" name="Situação" dataDxfId="6" totalsRowDxfId="2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1657,17 +1615,17 @@
   </sheetPr>
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.125" customWidth="1"/>
-    <col min="2" max="2" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="1.09765625" customWidth="1"/>
+    <col min="2" max="2" width="40.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.09765625" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" customWidth="1"/>
     <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
@@ -1741,46 +1699,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:9" ht="20.399999999999999">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="30" customHeight="1">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
+    </row>
+    <row r="11" spans="2:9" ht="30" customHeight="1">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1">
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="30" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1">
@@ -1807,7 +1759,7 @@
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1">
       <c r="B20" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1815,101 +1767,53 @@
     </row>
     <row r="21" spans="2:5" ht="30" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1">
-      <c r="B22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="27">
-        <v>45560</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1">
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="28">
-        <v>45560</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1">
-      <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="28">
-        <v>45560</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1">
-      <c r="B25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="28">
-        <v>45560</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" ht="30" customHeight="1">
-      <c r="B26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="28">
-        <v>45560</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:5" ht="30" customHeight="1">
-      <c r="B27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="28">
-        <v>45560</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:5" ht="30" customHeight="1">
       <c r="B28" s="7"/>
@@ -1970,6 +1874,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa0996e3a60c29644e9f2cf3d3cad0da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61aa44093c7789ab6990bc79f23b9731" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -2125,33 +2046,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6249D248-E7D3-408E-8CE5-50FC0655C604}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932E6384-755C-48D1-BEC1-844EA204F516}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57C8022-9D6B-4416-AED0-B410FD575972}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57C8022-9D6B-4416-AED0-B410FD575972}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932E6384-755C-48D1-BEC1-844EA204F516}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6249D248-E7D3-408E-8CE5-50FC0655C604}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/reuniões/dailys/Daily_24_09.xlsx
+++ b/reuniões/dailys/Daily_24_09.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{A4AE69A9-1E00-4146-B634-4C521378AF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D71825-F74B-42AC-A603-DDAFC1A7AB9D}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{A4AE69A9-1E00-4146-B634-4C521378AF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80901B64-3BDC-41CD-A833-57249C52F561}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>AGENDA DE REUNIÕES ORCHIS SYSTEM</t>
   </si>
@@ -100,6 +100,39 @@
   </si>
   <si>
     <t>Fábio Kuriki</t>
+  </si>
+  <si>
+    <t>Reorganização de tarefas</t>
+  </si>
+  <si>
+    <t>Replanejamento de Entregavéis</t>
+  </si>
+  <si>
+    <t>Atribuição de novas tarefas</t>
+  </si>
+  <si>
+    <t>Discussão de andamento do Projeto</t>
+  </si>
+  <si>
+    <t>Criação da Tela Home</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Modelagem Banco de Dados</t>
+  </si>
+  <si>
+    <t>Estruturação da Dashboard</t>
+  </si>
+  <si>
+    <t>Criação Diagrama de Soluções</t>
+  </si>
+  <si>
+    <t>Tela de Login</t>
+  </si>
+  <si>
+    <t>Instalação MYSQL na VM</t>
   </si>
 </sst>
 </file>
@@ -824,54 +857,6 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Poppins"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Poppins"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF922A74"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1040,6 +1025,54 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFEFD5EC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Poppins"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Poppins"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF922A74"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1344,12 +1377,16 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDaReunião" displayName="DadosDaReunião" ref="B8:C18" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15">
   <autoFilter ref="B8:C17" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assuntos Discutidos" dataDxfId="14" totalsRowDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{19E48FEE-BF0F-4F91-A6DF-64EF1072BC46}" name="Presentes" dataDxfId="13" totalsRowDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Assuntos Discutidos" dataDxfId="14" totalsRowDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{19E48FEE-BF0F-4F91-A6DF-64EF1072BC46}" name="Presentes" dataDxfId="13" totalsRowDxfId="8" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1364,14 +1401,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE37D6C8-AC04-46A6-AAA6-24B204D1D210}" name="DadosDaReunião2" displayName="DadosDaReunião2" ref="B21:E31" totalsRowCount="1" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
   <autoFilter ref="B21:E30" xr:uid="{CE37D6C8-AC04-46A6-AAA6-24B204D1D210}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BCB40325-DDE7-4562-A460-C0F89FD9179B}" name="Atividades" dataDxfId="9" totalsRowDxfId="5" dataCellStyle="Horário de Início/Término">
+    <tableColumn id="1" xr3:uid="{BCB40325-DDE7-4562-A460-C0F89FD9179B}" name="Atividades" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Horário de Início/Término">
       <calculatedColumnFormula>IF(ISBLANK(C21),"",C21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{93D62D18-C90E-48BF-B30A-D911F7A6FCD8}" name="Entrega" dataDxfId="8" totalsRowDxfId="4" dataCellStyle="Horário de Início/Término">
+    <tableColumn id="2" xr3:uid="{93D62D18-C90E-48BF-B30A-D911F7A6FCD8}" name="Entrega" dataDxfId="6" totalsRowDxfId="2" dataCellStyle="Horário de Início/Término">
       <calculatedColumnFormula>IFERROR(IF(ISBLANK(D22),"",B22+D22), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C88724A6-1AAA-442A-AC5D-FA9CC640F437}" name="Responsável" dataDxfId="7" totalsRowDxfId="3" dataCellStyle="Hora"/>
-    <tableColumn id="4" xr3:uid="{9E5AC715-A849-49E0-86B6-4B41F726ED66}" name="Situação" dataDxfId="6" totalsRowDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{C88724A6-1AAA-442A-AC5D-FA9CC640F437}" name="Responsável" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Hora"/>
+    <tableColumn id="4" xr3:uid="{9E5AC715-A849-49E0-86B6-4B41F726ED66}" name="Situação" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1615,8 +1652,8 @@
   </sheetPr>
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="30" customHeight="1"/>
@@ -1677,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="20">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="23"/>
@@ -1699,26 +1736,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="20.399999999999999">
-      <c r="B9" s="9"/>
+    <row r="9" spans="2:9" ht="21.6" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1">
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1">
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1">
-      <c r="B12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1780,40 +1825,88 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1">
-      <c r="B22" s="7"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="27">
+        <v>45561</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1">
-      <c r="B23" s="7"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="28">
+        <v>45561</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1">
-      <c r="B24" s="7"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="28">
+        <v>45561</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1">
-      <c r="B25" s="7"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="28">
+        <v>45561</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="2:5" ht="30" customHeight="1">
-      <c r="B26" s="7"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="28">
+        <v>45561</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="2:5" ht="30" customHeight="1">
-      <c r="B27" s="7"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="28">
+        <v>45561</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="2:5" ht="30" customHeight="1">
       <c r="B28" s="7"/>
@@ -1874,23 +1967,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD11765F9AC0004AAF0A4CAAFDFAF16A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa0996e3a60c29644e9f2cf3d3cad0da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9fdc8751-6fef-42ec-b05c-835dd8c535b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61aa44093c7789ab6990bc79f23b9731" ns3:_="">
     <xsd:import namespace="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
@@ -2046,25 +2122,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932E6384-755C-48D1-BEC1-844EA204F516}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57C8022-9D6B-4416-AED0-B410FD575972}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9fdc8751-6fef-42ec-b05c-835dd8c535b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6249D248-E7D3-408E-8CE5-50FC0655C604}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2082,6 +2157,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F57C8022-9D6B-4416-AED0-B410FD575972}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932E6384-755C-48D1-BEC1-844EA204F516}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9fdc8751-6fef-42ec-b05c-835dd8c535b4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>